--- a/optical detector.xlsx
+++ b/optical detector.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0252b26490cde1dc/Documents/GitHub/MRCS-Don-Wood-IR-Detector-Circuit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\MRCS-Don-Wood-IR-Detector-Circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5851EE0F-5FA4-45D0-AEB3-79C82671E510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3689412-0F7D-4A7E-92D8-FEAB226E5597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1005" windowWidth="27360" windowHeight="15195" xr2:uid="{7B930309-B607-4141-AB7F-B5A14AF8126D}"/>
+    <workbookView minimized="1" xWindow="1620" yWindow="1050" windowWidth="27045" windowHeight="12795" activeTab="2" xr2:uid="{7B930309-B607-4141-AB7F-B5A14AF8126D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Master BOM" sheetId="2" r:id="rId1"/>
+    <sheet name="Minimal-Single" sheetId="1" r:id="rId2"/>
+    <sheet name="Dual with Emitters" sheetId="3" r:id="rId3"/>
+    <sheet name=" Dual with Emitter &amp; LEDs " sheetId="4" r:id="rId4"/>
+    <sheet name="Dual Tortoise Controller" sheetId="5" r:id="rId5"/>
+    <sheet name="options" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$H$12</definedName>
+    <definedName name="ecommerce">'Master BOM'!$C$18</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Master BOM'!$A$1:$I$13</definedName>
+    <definedName name="Markup">'Master BOM'!$C$17</definedName>
+    <definedName name="pin">'Master BOM'!$I$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MRCS_Don_Wood_IR_Detector_Circuit[[#All],[Qty]:[Description]]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="81">
   <si>
     <t>Qty</t>
   </si>
@@ -67,12 +74,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>_1</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -166,9 +167,6 @@
     <t>AXIAL-0.4-RES</t>
   </si>
   <si>
-    <t>R1, R3, R4, R6, R8, R12</t>
-  </si>
-  <si>
     <t>DC PWR</t>
   </si>
   <si>
@@ -199,9 +197,6 @@
     <t>RED</t>
   </si>
   <si>
-    <t>LEDLED3MM</t>
-  </si>
-  <si>
     <t>LED3MM</t>
   </si>
   <si>
@@ -212,13 +207,107 @@
   </si>
   <si>
     <t>MRCS-Don-Woods-IR-Detector</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>MRCS</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Extd</t>
+  </si>
+  <si>
+    <t>Jameco</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>V-Part</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>R1, R6, R8, R12</t>
+  </si>
+  <si>
+    <t>Banggood</t>
+  </si>
+  <si>
+    <t>EOQ</t>
+  </si>
+  <si>
+    <t>Socket DIL14</t>
+  </si>
+  <si>
+    <t>U1S</t>
+  </si>
+  <si>
+    <t>14 oin dip socket</t>
+  </si>
+  <si>
+    <t>leads</t>
+  </si>
+  <si>
+    <t>leads extd</t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>Parts  total</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Markup</t>
+  </si>
+  <si>
+    <t>ecommerce</t>
+  </si>
+  <si>
+    <t>Cost subtotal</t>
+  </si>
+  <si>
+    <t>marked up subtotal</t>
+  </si>
+  <si>
+    <t>E-commerce</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>barrel jack</t>
+  </si>
+  <si>
+    <t>limiting resistor</t>
+  </si>
+  <si>
+    <t>external power for leds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,16 +315,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,18 +353,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -291,8 +461,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{6407ACDC-A397-4C08-90DA-18587CAB4401}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="12" unboundColumnsRight="2">
+    <queryTableFields count="11">
       <queryTableField id="1" name="Qty" tableColumnId="1"/>
       <queryTableField id="2" name="Value" tableColumnId="2"/>
       <queryTableField id="3" name="Device" tableColumnId="3"/>
@@ -300,24 +470,30 @@
       <queryTableField id="5" name="Parts" tableColumnId="5"/>
       <queryTableField id="6" name="Description" tableColumnId="6"/>
       <queryTableField id="7" name="Column1" tableColumnId="7"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
       <queryTableField id="8" name="_1" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDFE3A7-7AF6-4F55-B35A-D34B78D0856B}" name="MRCS_Don_Wood_IR_Detector_Circuit" displayName="MRCS_Don_Wood_IR_Detector_Circuit" ref="A1:H12" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H12" xr:uid="{E3AF74F2-1BEB-4646-A374-3246047108E0}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDFE3A7-7AF6-4F55-B35A-D34B78D0856B}" name="MRCS_Don_Wood_IR_Detector_Circuit" displayName="MRCS_Don_Wood_IR_Detector_Circuit" ref="A1:K13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K13" xr:uid="{E3AF74F2-1BEB-4646-A374-3246047108E0}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{BF8A01D0-5906-4D59-A727-9A02057144DB}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{BFC7CBCE-C87D-4208-8F6C-117D9B49B899}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FE852341-761C-440E-BA61-02DE09FA054A}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7FF29C02-AE61-4375-A254-F811173351A4}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{DCACDE5F-A773-4524-A4A1-563645CC006D}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F7C0D96A-0310-4807-A3A0-051B7F250FD3}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{FC0A1CEB-B7EA-4D72-81ED-441C7B92C9A6}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{F445CC42-6D16-4181-85A1-9F813CE2DF20}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BFC7CBCE-C87D-4208-8F6C-117D9B49B899}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{FE852341-761C-440E-BA61-02DE09FA054A}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7FF29C02-AE61-4375-A254-F811173351A4}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{DCACDE5F-A773-4524-A4A1-563645CC006D}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F7C0D96A-0310-4807-A3A0-051B7F250FD3}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{FC0A1CEB-B7EA-4D72-81ED-441C7B92C9A6}" uniqueName="7" name="Vendor" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{74241BCB-1D0D-4D3D-A6F2-41A318B4142E}" uniqueName="10" name="V-Part" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{F445CC42-6D16-4181-85A1-9F813CE2DF20}" uniqueName="8" name="Unit" queryTableFieldId="8" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{B2672E63-608F-4AD6-9795-A2102710BC30}" uniqueName="9" name="Extd" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{7D846D0D-8120-4044-A0BE-22CCEF510137}" uniqueName="11" name="EOQ" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,25 +796,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEE2236-BD32-43A4-B90D-A19F8D7CF441}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,287 +835,392 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="1">
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4700</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="H13" s="1"/>
+      <c r="I13" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -951,12 +1233,2970 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419446A7-D791-4C25-9E30-642713A50ACB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M021X02-LOCK</v>
+      </c>
+      <c r="D2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X02_LOCK</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J3, J4</v>
+      </c>
+      <c r="F2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>PHOENIX CONNECTOR</v>
+      </c>
+      <c r="G2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H2">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="5">
+        <f>I2*A2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>L2*A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M06LOCK</v>
+      </c>
+      <c r="D3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X06_LOCK</v>
+      </c>
+      <c r="E3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J2</v>
+      </c>
+      <c r="F3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Header 6  Standard 6-pin 0.1 header"</v>
+      </c>
+      <c r="G3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H3">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J13" si="0">I3*A3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M12" si="1">L3*A3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M08LOCK</v>
+      </c>
+      <c r="D4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X08_LOCK</v>
+      </c>
+      <c r="E4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Header 8</v>
+      </c>
+      <c r="G4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H4">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH-R0</v>
+      </c>
+      <c r="D5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>CUT-R</v>
+      </c>
+      <c r="E5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R7, R9, R10, R11</v>
+      </c>
+      <c r="F5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>10K</v>
+      </c>
+      <c r="C6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>TRIM_US-RS3</v>
+      </c>
+      <c r="D6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>RS3</v>
+      </c>
+      <c r="E6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R2, R5</v>
+      </c>
+      <c r="F6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>POTENTIOMETER</v>
+      </c>
+      <c r="G6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Banggood</v>
+      </c>
+      <c r="H6">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>1N5819</v>
+      </c>
+      <c r="C7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>DIODEPTH</v>
+      </c>
+      <c r="D7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DIODE-1N4001</v>
+      </c>
+      <c r="E7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>D1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Diode</v>
+      </c>
+      <c r="G7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H7">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.06</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>4700</v>
+      </c>
+      <c r="C8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH04</v>
+      </c>
+      <c r="D8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>AXIAL-0.4-RES</v>
+      </c>
+      <c r="E8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R3,R4</v>
+      </c>
+      <c r="F8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>470</v>
+      </c>
+      <c r="C9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH04</v>
+      </c>
+      <c r="D9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>AXIAL-0.4-RES</v>
+      </c>
+      <c r="E9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R1, R6, R8, R12</v>
+      </c>
+      <c r="F9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H9">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>DC PWR</v>
+      </c>
+      <c r="C10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-DC-POWER-RA</v>
+      </c>
+      <c r="D10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DCJ0202</v>
+      </c>
+      <c r="E10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>CON1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>DC POWER JACK</v>
+      </c>
+      <c r="G10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H10">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>LM324N</v>
+      </c>
+      <c r="C11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>LM324N</v>
+      </c>
+      <c r="D11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DIL14</v>
+      </c>
+      <c r="E11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>U1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>OP AMP</v>
+      </c>
+      <c r="G11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H11">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>LED3MM</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>PCB</v>
+      </c>
+      <c r="D13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>MRCS-Don-Woods-IR-Detector</v>
+      </c>
+      <c r="G13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>MRCS</v>
+      </c>
+      <c r="H13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>1.67</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="5">
+        <f>SUM(J2:J14)</f>
+        <v>2.79</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M2:M14)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>M15</f>
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="5">
+        <f>pin</f>
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16" si="2">I16*A16</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="5">
+        <f>SUM(J15:J17)</f>
+        <v>8.1900000000000013</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="5">
+        <f>J18*Markup</f>
+        <v>1.6380000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="5">
+        <f>SUM(J18:J20)</f>
+        <v>9.8280000000000012</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="5">
+        <f>J21*ecommerce</f>
+        <v>0.98280000000000012</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="5">
+        <f>SUM(J21:J23)</f>
+        <v>10.8108</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="12">
+        <f>ROUND(J24,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A335B455-897C-4548-8362-8E45C1773359}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M021X02-LOCK</v>
+      </c>
+      <c r="D2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X02_LOCK</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J3, J4</v>
+      </c>
+      <c r="F2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>PHOENIX CONNECTOR</v>
+      </c>
+      <c r="G2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H2">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="8">
+        <f>I2*A2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>L2*A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M06LOCK</v>
+      </c>
+      <c r="D3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X06_LOCK</v>
+      </c>
+      <c r="E3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J2</v>
+      </c>
+      <c r="F3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Header 6  Standard 6-pin 0.1 header"</v>
+      </c>
+      <c r="G3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H3">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="8">
+        <f t="shared" ref="J3:J13" si="0">I3*A3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M12" si="1">L3*A3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M08LOCK</v>
+      </c>
+      <c r="D4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X08_LOCK</v>
+      </c>
+      <c r="E4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Header 8</v>
+      </c>
+      <c r="G4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H4">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH-R0</v>
+      </c>
+      <c r="D5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>CUT-R</v>
+      </c>
+      <c r="E5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R7, R9, R10, R11</v>
+      </c>
+      <c r="F5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>10K</v>
+      </c>
+      <c r="C6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>TRIM_US-RS3</v>
+      </c>
+      <c r="D6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>RS3</v>
+      </c>
+      <c r="E6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R2, R5</v>
+      </c>
+      <c r="F6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>POTENTIOMETER</v>
+      </c>
+      <c r="G6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Banggood</v>
+      </c>
+      <c r="H6">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>1N5819</v>
+      </c>
+      <c r="C7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>DIODEPTH</v>
+      </c>
+      <c r="D7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DIODE-1N4001</v>
+      </c>
+      <c r="E7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>D1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Diode</v>
+      </c>
+      <c r="G7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H7">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.06</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>4700</v>
+      </c>
+      <c r="C8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH04</v>
+      </c>
+      <c r="D8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>AXIAL-0.4-RES</v>
+      </c>
+      <c r="E8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R3,R4</v>
+      </c>
+      <c r="F8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>470</v>
+      </c>
+      <c r="C9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH04</v>
+      </c>
+      <c r="D9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>AXIAL-0.4-RES</v>
+      </c>
+      <c r="E9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R1, R6, R8, R12</v>
+      </c>
+      <c r="F9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H9">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>DC PWR</v>
+      </c>
+      <c r="C10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-DC-POWER-RA</v>
+      </c>
+      <c r="D10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DCJ0202</v>
+      </c>
+      <c r="E10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>CON1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>DC POWER JACK</v>
+      </c>
+      <c r="G10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H10">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>LM324N</v>
+      </c>
+      <c r="C11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>LM324N</v>
+      </c>
+      <c r="D11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DIL14</v>
+      </c>
+      <c r="E11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>U1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>OP AMP</v>
+      </c>
+      <c r="G11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H11">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>LED3MM</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>PCB</v>
+      </c>
+      <c r="D13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>MRCS-Don-Woods-IR-Detector</v>
+      </c>
+      <c r="G13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>MRCS</v>
+      </c>
+      <c r="H13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>1.67</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="5">
+        <f>SUM(J2:J14)</f>
+        <v>3.68</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M2:M14)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>M15</f>
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="5">
+        <f>pin</f>
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16" si="2">I16*A16</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="5">
+        <f>SUM(J15:J17)</f>
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="5">
+        <f>J18*Markup</f>
+        <v>2.4960000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="5">
+        <f>SUM(J18:J20)</f>
+        <v>14.976000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="5">
+        <f>J21*ecommerce</f>
+        <v>1.4976000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="5">
+        <f>SUM(J21:J23)</f>
+        <v>16.473600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="12">
+        <f>ROUND(J24,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FD0C1B-B033-4245-A4C9-E554952A5C01}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M021X02-LOCK</v>
+      </c>
+      <c r="D2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X02_LOCK</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J3, J4</v>
+      </c>
+      <c r="F2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>PHOENIX CONNECTOR</v>
+      </c>
+      <c r="G2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H2">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="5">
+        <f>I2*A2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>L2*A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M06LOCK</v>
+      </c>
+      <c r="D3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X06_LOCK</v>
+      </c>
+      <c r="E3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J2</v>
+      </c>
+      <c r="F3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Header 6  Standard 6-pin 0.1 header"</v>
+      </c>
+      <c r="G3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H3">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J13" si="0">I3*A3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M12" si="1">L3*A3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M08LOCK</v>
+      </c>
+      <c r="D4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X08_LOCK</v>
+      </c>
+      <c r="E4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Header 8</v>
+      </c>
+      <c r="G4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H4">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH-R0</v>
+      </c>
+      <c r="D5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>CUT-R</v>
+      </c>
+      <c r="E5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R7, R9, R10, R11</v>
+      </c>
+      <c r="F5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>10K</v>
+      </c>
+      <c r="C6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>TRIM_US-RS3</v>
+      </c>
+      <c r="D6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>RS3</v>
+      </c>
+      <c r="E6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R2, R5</v>
+      </c>
+      <c r="F6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>POTENTIOMETER</v>
+      </c>
+      <c r="G6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Banggood</v>
+      </c>
+      <c r="H6">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>1N5819</v>
+      </c>
+      <c r="C7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>DIODEPTH</v>
+      </c>
+      <c r="D7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DIODE-1N4001</v>
+      </c>
+      <c r="E7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>D1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Diode</v>
+      </c>
+      <c r="G7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H7">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.06</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>4700</v>
+      </c>
+      <c r="C8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH04</v>
+      </c>
+      <c r="D8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>AXIAL-0.4-RES</v>
+      </c>
+      <c r="E8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R3,R4</v>
+      </c>
+      <c r="F8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>470</v>
+      </c>
+      <c r="C9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH04</v>
+      </c>
+      <c r="D9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>AXIAL-0.4-RES</v>
+      </c>
+      <c r="E9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R1, R6, R8, R12</v>
+      </c>
+      <c r="F9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H9">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>DC PWR</v>
+      </c>
+      <c r="C10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-DC-POWER-RA</v>
+      </c>
+      <c r="D10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DCJ0202</v>
+      </c>
+      <c r="E10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>CON1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>DC POWER JACK</v>
+      </c>
+      <c r="G10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H10">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>LM324N</v>
+      </c>
+      <c r="C11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>LM324N</v>
+      </c>
+      <c r="D11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DIL14</v>
+      </c>
+      <c r="E11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>U1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>OP AMP</v>
+      </c>
+      <c r="G11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H11">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>LED3MM</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>PCB</v>
+      </c>
+      <c r="D13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>MRCS-Don-Woods-IR-Detector</v>
+      </c>
+      <c r="G13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>MRCS</v>
+      </c>
+      <c r="H13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>1.67</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="5">
+        <f>SUM(J2:J14)</f>
+        <v>2.79</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M2:M14)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>M15</f>
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="5">
+        <f>pin</f>
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16" si="2">I16*A16</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="5">
+        <f>SUM(J15:J17)</f>
+        <v>8.1900000000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="5">
+        <f>J18*Markup</f>
+        <v>1.6380000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="5">
+        <f>SUM(J18:J20)</f>
+        <v>9.8280000000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="5">
+        <f>J21*ecommerce</f>
+        <v>0.98280000000000012</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="5">
+        <f>SUM(J21:J23)</f>
+        <v>10.8108</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="12">
+        <f>ROUND(J24,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A35B99-AA1A-4478-8CBB-DC3C42F91811}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M021X02-LOCK</v>
+      </c>
+      <c r="D2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X02_LOCK</v>
+      </c>
+      <c r="E2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J3, J4</v>
+      </c>
+      <c r="F2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>PHOENIX CONNECTOR</v>
+      </c>
+      <c r="G2" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H2">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="5">
+        <f>I2*A2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>L2*A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M06LOCK</v>
+      </c>
+      <c r="D3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X06_LOCK</v>
+      </c>
+      <c r="E3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J2</v>
+      </c>
+      <c r="F3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Header 6  Standard 6-pin 0.1 header"</v>
+      </c>
+      <c r="G3" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H3">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J13" si="0">I3*A3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M12" si="1">L3*A3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-M08LOCK</v>
+      </c>
+      <c r="D4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>1X08_LOCK</v>
+      </c>
+      <c r="E4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>J1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Header 8</v>
+      </c>
+      <c r="G4" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H4">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH-R0</v>
+      </c>
+      <c r="D5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>CUT-R</v>
+      </c>
+      <c r="E5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R7, R9, R10, R11</v>
+      </c>
+      <c r="F5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G5" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>10K</v>
+      </c>
+      <c r="C6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>TRIM_US-RS3</v>
+      </c>
+      <c r="D6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>RS3</v>
+      </c>
+      <c r="E6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R2, R5</v>
+      </c>
+      <c r="F6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>POTENTIOMETER</v>
+      </c>
+      <c r="G6" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Banggood</v>
+      </c>
+      <c r="H6">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>1N5819</v>
+      </c>
+      <c r="C7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>DIODEPTH</v>
+      </c>
+      <c r="D7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DIODE-1N4001</v>
+      </c>
+      <c r="E7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>D1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Diode</v>
+      </c>
+      <c r="G7" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H7">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.06</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>4700</v>
+      </c>
+      <c r="C8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH04</v>
+      </c>
+      <c r="D8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>AXIAL-0.4-RES</v>
+      </c>
+      <c r="E8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R3,R4</v>
+      </c>
+      <c r="F8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G8" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.04</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>470</v>
+      </c>
+      <c r="C9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>RPTH04</v>
+      </c>
+      <c r="D9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>AXIAL-0.4-RES</v>
+      </c>
+      <c r="E9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>R1, R6, R8, R12</v>
+      </c>
+      <c r="F9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>Resistor</v>
+      </c>
+      <c r="G9" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H9">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>DC PWR</v>
+      </c>
+      <c r="C10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>CONNECTOR-DC-POWER-RA</v>
+      </c>
+      <c r="D10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DCJ0202</v>
+      </c>
+      <c r="E10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>CON1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>DC POWER JACK</v>
+      </c>
+      <c r="G10" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Asian</v>
+      </c>
+      <c r="H10">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>LM324N</v>
+      </c>
+      <c r="C11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>LM324N</v>
+      </c>
+      <c r="D11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>DIL14</v>
+      </c>
+      <c r="E11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>U1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>OP AMP</v>
+      </c>
+      <c r="G11" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>Jameco</v>
+      </c>
+      <c r="H11">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>LED3MM</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Device]]</f>
+        <v>PCB</v>
+      </c>
+      <c r="D13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Package]]</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Parts]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Description]]</f>
+        <v>MRCS-Don-Woods-IR-Detector</v>
+      </c>
+      <c r="G13" t="str">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Vendor]]</f>
+        <v>MRCS</v>
+      </c>
+      <c r="H13">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[V-Part]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f>MRCS_Don_Wood_IR_Detector_Circuit[[#This Row],[Unit]]</f>
+        <v>1.67</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="5">
+        <f>SUM(J2:J14)</f>
+        <v>2.79</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M2:M14)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>M15</f>
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="5">
+        <f>pin</f>
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16" si="2">I16*A16</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="5">
+        <f>SUM(J15:J17)</f>
+        <v>8.1900000000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="5">
+        <f>J18*Markup</f>
+        <v>1.6380000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="5">
+        <f>SUM(J18:J20)</f>
+        <v>9.8280000000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="5">
+        <f>J21*ecommerce</f>
+        <v>0.98280000000000012</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="5">
+        <f>SUM(J21:J23)</f>
+        <v>10.8108</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="12">
+        <f>ROUND(J24,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644C851-C937-465A-97F3-EFD560AC82D8}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
